--- a/SimpleMessages.xlsx
+++ b/SimpleMessages.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="75">
   <si>
     <t>Unresponsive</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>:::Host::server12</t>
+  </si>
+  <si>
+    <t>:::Switch::coresw01</t>
   </si>
 </sst>
 </file>
@@ -321,7 +324,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="385">
+  <cellStyleXfs count="395">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -656,6 +659,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -715,7 +728,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="385">
+  <cellStyles count="395">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -919,6 +932,11 @@
     <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1100,6 +1118,11 @@
     <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1432,13 +1455,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43:XFD45"/>
+      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3439,6 +3462,94 @@
         <v>1386604685</v>
       </c>
     </row>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K46">
+        <v>1386604685</v>
+      </c>
+      <c r="L46">
+        <v>1386604685</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1386604685</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K47">
+        <v>1386604685</v>
+      </c>
+      <c r="L47">
+        <v>1386604685</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1386604685</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:N42">
     <sortCondition ref="D2:D42"/>

--- a/SimpleMessages.xlsx
+++ b/SimpleMessages.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jplaberge/Documents/workspace.2016-b/krr.git/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="24260" windowHeight="15120" tabRatio="500"/>
+    <workbookView xWindow="840" yWindow="480" windowWidth="24260" windowHeight="15120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,6 +19,9 @@
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -22,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="76">
   <si>
     <t>Unresponsive</t>
   </si>
@@ -247,6 +255,9 @@
   </si>
   <si>
     <t>:::Switch::coresw01</t>
+  </si>
+  <si>
+    <t>:::URL::www.magenta.ca|order</t>
   </si>
 </sst>
 </file>
@@ -1127,6 +1138,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1455,16 +1471,16 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
+      <selection pane="bottomRight" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
@@ -1482,7 +1498,7 @@
     <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -1526,7 +1542,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1570,7 +1586,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1614,7 +1630,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1658,7 +1674,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1702,7 +1718,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1746,7 +1762,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1790,7 +1806,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1834,7 +1850,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1878,7 +1894,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1922,7 +1938,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1966,7 +1982,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -2010,7 +2026,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -2054,7 +2070,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -2098,7 +2114,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -2142,7 +2158,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -2186,7 +2202,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -2230,7 +2246,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -2274,7 +2290,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -2318,7 +2334,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -2362,7 +2378,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -2406,7 +2422,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2450,7 +2466,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2494,7 +2510,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -2538,7 +2554,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -2582,7 +2598,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2626,7 +2642,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2670,7 +2686,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2714,7 +2730,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2758,7 +2774,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2802,7 +2818,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -2846,7 +2862,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -2890,7 +2906,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -2934,7 +2950,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -2978,7 +2994,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -3022,7 +3038,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -3066,7 +3082,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -3110,7 +3126,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -3154,7 +3170,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -3198,7 +3214,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -3242,7 +3258,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -3286,7 +3302,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -3330,7 +3346,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -3374,7 +3390,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -3418,7 +3434,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -3462,7 +3478,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -3506,7 +3522,7 @@
         <v>1386604685</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -3547,6 +3563,50 @@
         <v>0</v>
       </c>
       <c r="N47">
+        <v>1386604685</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K48">
+        <v>1386604685</v>
+      </c>
+      <c r="L48">
+        <v>1386604685</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
         <v>1386604685</v>
       </c>
     </row>
@@ -3562,10 +3622,5 @@
   <printOptions gridLines="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="75" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/SimpleMessages.xlsx
+++ b/SimpleMessages.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="480" windowWidth="24260" windowHeight="15120" tabRatio="500"/>
+    <workbookView xWindow="860" yWindow="480" windowWidth="24260" windowHeight="15120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="77">
   <si>
     <t>Unresponsive</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>:::URL::www.magenta.ca|order</t>
+  </si>
+  <si>
+    <t>SweetHome</t>
   </si>
 </sst>
 </file>
@@ -1474,10 +1477,10 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B50" sqref="B50"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1553,7 +1556,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -1597,7 +1600,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -1641,7 +1644,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -1685,10 +1688,10 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
@@ -1729,10 +1732,10 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -1773,10 +1776,10 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
         <v>68</v>
